--- a/examples/thermodynamic_metabolic_model/schema_and_data.xlsx
+++ b/examples/thermodynamic_metabolic_model/schema_and_data.xlsx
@@ -15,7 +15,7 @@
     <sheet name="!!References" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$3:$C$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Compartments'!$A$2:$B$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Metabolites'!$A$2:$C$64</definedName>
@@ -44,10 +44,10 @@
     <t>'!!References'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='1.0.1' date='2020-06-02 16:01:35'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-06-02 16:01:35' objTablesVersion='1.0.1'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.9' date='2020-06-02 16:01:35' comment='Data obtained from Gerosa et al., Cell Systems, 2015, DOI: 10.1016/j.cels.2015.09.008'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-06-02 16:01:35' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -77,7 +77,7 @@
     <t>References</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-06-02 16:01:35' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-06-02 16:01:35' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -446,7 +446,7 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-06-02 16:01:35' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-06-02 16:01:35' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Id</t>
@@ -464,7 +464,7 @@
     <t>extracellular space</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-06-02 16:01:35' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-06-02 16:01:35' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Formula</t>
@@ -986,7 +986,7 @@
     <t>D-Xylulose 5-phosphate</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-06-02 16:01:35' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-06-02 16:01:35' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Id (iAF1260 [Ref1])</t>
@@ -2195,7 +2195,7 @@
     <t>1.1.1.49</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-05-28 23:58:52' objTablesVersion='1.0.1' format='row'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-05-28 23:58:52' objTablesVersion='1.0.9' format='row'</t>
   </si>
   <si>
     <t>!Title</t>
@@ -2289,7 +2289,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2691,7 +2691,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2796,46 +2796,36 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="15.01" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15.01" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
@@ -2844,17 +2834,17 @@
         <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="15.01" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
@@ -2863,74 +2853,64 @@
         <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15.01" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15.01" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15.01" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
@@ -2942,14 +2922,14 @@
         <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15.01" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>27</v>
@@ -2961,14 +2941,14 @@
         <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15.01" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2980,14 +2960,14 @@
         <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="15.01" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
@@ -2999,14 +2979,14 @@
         <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15.01" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
@@ -3018,14 +2998,14 @@
         <v>39</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15.01" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>27</v>
@@ -3037,14 +3017,14 @@
         <v>39</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15.01" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>27</v>
@@ -3056,14 +3036,14 @@
         <v>39</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15.01" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>27</v>
@@ -3075,14 +3055,14 @@
         <v>39</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="15.01" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>27</v>
@@ -3094,14 +3074,14 @@
         <v>39</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="15.01" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -3113,14 +3093,14 @@
         <v>39</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="15.01" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>27</v>
@@ -3132,14 +3112,14 @@
         <v>39</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="15.01" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>27</v>
@@ -3151,14 +3131,14 @@
         <v>39</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="15.01" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>27</v>
@@ -3170,14 +3150,14 @@
         <v>39</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="15.01" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>27</v>
@@ -3189,14 +3169,14 @@
         <v>39</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="15.01" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>27</v>
@@ -3205,17 +3185,17 @@
         <v>37</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="15.01" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>27</v>
@@ -3224,17 +3204,17 @@
         <v>37</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="15.01" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>27</v>
@@ -3243,17 +3223,17 @@
         <v>37</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="15.01" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>27</v>
@@ -3262,17 +3242,17 @@
         <v>37</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="15.01" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>27</v>
@@ -3284,14 +3264,14 @@
         <v>39</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="15.01" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>27</v>
@@ -3303,14 +3283,14 @@
         <v>39</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="15.01" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>27</v>
@@ -3322,14 +3302,14 @@
         <v>39</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="15.01" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>27</v>
@@ -3341,14 +3321,14 @@
         <v>39</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="15.01" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>27</v>
@@ -3360,14 +3340,14 @@
         <v>39</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="15.01" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>27</v>
@@ -3379,14 +3359,14 @@
         <v>39</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="15.01" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>27</v>
@@ -3398,14 +3378,14 @@
         <v>39</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="15.01" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>27</v>
@@ -3417,14 +3397,14 @@
         <v>39</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="15.01" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>27</v>
@@ -3436,14 +3416,14 @@
         <v>39</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="15.01" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>27</v>
@@ -3455,14 +3435,14 @@
         <v>39</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="15.01" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>27</v>
@@ -3474,14 +3454,14 @@
         <v>39</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="15.01" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>27</v>
@@ -3493,14 +3473,14 @@
         <v>39</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="15.01" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>27</v>
@@ -3512,14 +3492,14 @@
         <v>39</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="15.01" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>27</v>
@@ -3531,14 +3511,14 @@
         <v>39</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="15.01" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>27</v>
@@ -3547,17 +3527,17 @@
         <v>37</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="15.01" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>27</v>
@@ -3566,17 +3546,17 @@
         <v>37</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="15.01" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>27</v>
@@ -3585,17 +3565,17 @@
         <v>37</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="15.01" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>27</v>
@@ -3607,14 +3587,14 @@
         <v>31</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="15.01" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>27</v>
@@ -3623,17 +3603,17 @@
         <v>37</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="15.01" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>27</v>
@@ -3645,14 +3625,14 @@
         <v>31</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" ht="15.01" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>27</v>
@@ -3661,93 +3641,83 @@
         <v>37</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="15.01" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D52" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="15.01" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="15.01" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" ht="15.01" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>27</v>
@@ -3756,17 +3726,17 @@
         <v>120</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" ht="15.01" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>27</v>
@@ -3775,17 +3745,17 @@
         <v>120</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" ht="15.01" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>27</v>
@@ -3794,17 +3764,17 @@
         <v>120</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" ht="15.01" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>27</v>
@@ -3816,14 +3786,14 @@
         <v>125</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" ht="15.01" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>27</v>
@@ -3832,17 +3802,17 @@
         <v>120</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" ht="15.01" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>27</v>
@@ -3854,19 +3824,76 @@
         <v>125</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
+    <row r="62" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A64" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:G61"/>
+  <autoFilter ref="A2:G64"/>
   <hyperlinks>
     <hyperlink ref="A3" location="'!!Compartments'!A1" tooltip="Click to view compartments" display="'!!Compartments'!A1"/>
-    <hyperlink ref="A6" location="'!!Metabolites'!A1" tooltip="Click to view metabolites" display="'!!Metabolites'!A1"/>
-    <hyperlink ref="A10" location="'!!Reactions'!A1" tooltip="Click to view reactions" display="'!!Reactions'!A1"/>
-    <hyperlink ref="A52" location="'!!References'!A1" tooltip="Click to view references" display="'!!References'!A1"/>
+    <hyperlink ref="A7" location="'!!Metabolites'!A1" tooltip="Click to view metabolites" display="'!!Metabolites'!A1"/>
+    <hyperlink ref="A12" location="'!!Reactions'!A1" tooltip="Click to view reactions" display="'!!Reactions'!A1"/>
+    <hyperlink ref="A55" location="'!!References'!A1" tooltip="Click to view references" display="'!!References'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
